--- a/biology/Botanique/Dipterocarpus_coriaceus/Dipterocarpus_coriaceus.xlsx
+++ b/biology/Botanique/Dipterocarpus_coriaceus/Dipterocarpus_coriaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipterocarpus coriaceus est un grand arbre sempervirent de la Péninsule Malaise, du Kalimantan et de Sumatra, appartenant à la famille des Diptérocarpacées.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts de plaine à diptérocarp de la Péninsule Malaise, du Kalimantan et de Sumatra.
 </t>
@@ -568,9 +584,11 @@
           <t>Préservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En danger critique de disparition du fait de la déforestation. En juillet 2013, 400 ha restant de la Bikam Forest Reserve, son dernier habitat naturel, a été rasée pour y produire de l'huile de palme[1]. Précédemment une partie de la réserve avait été défrichée pour l'extension de l'Universiti Teknologi MARA (UiTM). Selon l'ONG Sahabat Alam Malaysia une cinquantaine d'arbres se trouvent dans le marais à l'intérieur du campus de l'université[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En danger critique de disparition du fait de la déforestation. En juillet 2013, 400 ha restant de la Bikam Forest Reserve, son dernier habitat naturel, a été rasée pour y produire de l'huile de palme. Précédemment une partie de la réserve avait été défrichée pour l'extension de l'Universiti Teknologi MARA (UiTM). Selon l'ONG Sahabat Alam Malaysia une cinquantaine d'arbres se trouvent dans le marais à l'intérieur du campus de l'université.
 </t>
         </is>
       </c>
